--- a/Code/Results/Cases/Case_3_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.99295522542657</v>
+        <v>14.96897479739331</v>
       </c>
       <c r="C2">
-        <v>14.50267506144921</v>
+        <v>8.266510995309281</v>
       </c>
       <c r="D2">
-        <v>5.655471571948985</v>
+        <v>9.317208248789967</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.40815662535782</v>
+        <v>36.31233528709617</v>
       </c>
       <c r="G2">
-        <v>37.80500685622648</v>
+        <v>40.12048405863331</v>
       </c>
       <c r="H2">
-        <v>11.68478479746689</v>
+        <v>16.83448487634694</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.518826267856848</v>
+        <v>11.01257593831783</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.6077456315977</v>
+        <v>17.96244524207853</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5481956776625</v>
+        <v>14.46667559738459</v>
       </c>
       <c r="C3">
-        <v>13.56244343862639</v>
+        <v>7.801617803030675</v>
       </c>
       <c r="D3">
-        <v>5.517674249074597</v>
+        <v>9.310225729630393</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.53596975845129</v>
+        <v>36.289288153946</v>
       </c>
       <c r="G3">
-        <v>36.312320227776</v>
+        <v>39.96665136336791</v>
       </c>
       <c r="H3">
-        <v>11.55326053943347</v>
+        <v>16.87335582583014</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.531524983271164</v>
+        <v>11.04035937685379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.77287847187495</v>
+        <v>17.81513519022682</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.61181874242123</v>
+        <v>14.15229384886916</v>
       </c>
       <c r="C4">
-        <v>12.95408088613809</v>
+        <v>7.502268120912341</v>
       </c>
       <c r="D4">
-        <v>5.433191778860427</v>
+        <v>9.306873983947732</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.0237225918085</v>
+        <v>36.28654198038769</v>
       </c>
       <c r="G4">
-        <v>35.4216523726269</v>
+        <v>39.88826225060501</v>
       </c>
       <c r="H4">
-        <v>11.4846314799333</v>
+        <v>16.90135899576612</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.543017268395992</v>
+        <v>11.05891815563326</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.24425289331492</v>
+        <v>17.72756565199284</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21771496655421</v>
+        <v>14.02288991811257</v>
       </c>
       <c r="C5">
-        <v>12.69831717289847</v>
+        <v>7.376892821366991</v>
       </c>
       <c r="D5">
-        <v>5.398829745076885</v>
+        <v>9.305744719364993</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.82090877017689</v>
+        <v>36.28828528808188</v>
       </c>
       <c r="G5">
-        <v>35.06552420223262</v>
+        <v>39.86037077594217</v>
       </c>
       <c r="H5">
-        <v>11.45960049442088</v>
+        <v>16.91380642933412</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.548595988116023</v>
+        <v>11.06685806005899</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.02501622591051</v>
+        <v>17.69263686825482</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.15151433695103</v>
+        <v>14.00133100125933</v>
       </c>
       <c r="C6">
-        <v>12.65537265008937</v>
+        <v>7.355873335982237</v>
       </c>
       <c r="D6">
-        <v>5.393128919167366</v>
+        <v>9.305571533816375</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.78759195620837</v>
+        <v>36.28874743498869</v>
       </c>
       <c r="G6">
-        <v>35.00681147813064</v>
+        <v>39.85598443659587</v>
       </c>
       <c r="H6">
-        <v>11.45561802410543</v>
+        <v>16.91593575592283</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.549575459854356</v>
+        <v>11.06819924678885</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.98838863715347</v>
+        <v>17.68688358416079</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60655459128967</v>
+        <v>14.15055359874542</v>
       </c>
       <c r="C7">
-        <v>12.95066340186324</v>
+        <v>7.500590823693167</v>
       </c>
       <c r="D7">
-        <v>5.432728050275135</v>
+        <v>9.306857794574986</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.02096326433535</v>
+        <v>36.28655391076212</v>
       </c>
       <c r="G7">
-        <v>35.4168214220931</v>
+        <v>39.88786967520075</v>
       </c>
       <c r="H7">
-        <v>11.48428216955655</v>
+        <v>16.90152267760562</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.543088922485198</v>
+        <v>11.0590237093625</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.24131133598589</v>
+        <v>17.72709148523725</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50495296739491</v>
+        <v>14.79714127908995</v>
       </c>
       <c r="C8">
-        <v>14.18490004064699</v>
+        <v>8.109159801432089</v>
       </c>
       <c r="D8">
-        <v>5.607952494833281</v>
+        <v>9.31460732986625</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.10264344673498</v>
+        <v>36.30201904710981</v>
       </c>
       <c r="G8">
-        <v>37.28515308859956</v>
+        <v>40.06411830838726</v>
       </c>
       <c r="H8">
-        <v>11.63685132751832</v>
+        <v>16.84702665903577</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.522417127932631</v>
+        <v>11.02184439349466</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.32331814955386</v>
+        <v>17.91107497550103</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.84270895775192</v>
+        <v>16.00940457210513</v>
       </c>
       <c r="C9">
-        <v>16.36133491975113</v>
+        <v>9.188505318128692</v>
       </c>
       <c r="D9">
-        <v>5.951215408280596</v>
+        <v>9.33716641645737</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.40514035230262</v>
+        <v>36.42296654126203</v>
       </c>
       <c r="G9">
-        <v>41.14139109384475</v>
+        <v>40.53629601505434</v>
       </c>
       <c r="H9">
-        <v>12.037115141406</v>
+        <v>16.77315647674327</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.512790661096482</v>
+        <v>10.96083685303377</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.4907310603395</v>
+        <v>18.2932292654396</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0692026418716</v>
+        <v>16.85616472220004</v>
       </c>
       <c r="C10">
-        <v>17.81600821435999</v>
+        <v>9.908118103799769</v>
       </c>
       <c r="D10">
-        <v>6.201620131501213</v>
+        <v>9.358144642629613</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.20381415407704</v>
+        <v>36.56707805424189</v>
       </c>
       <c r="G10">
-        <v>44.07902006204395</v>
+        <v>40.95865935748063</v>
       </c>
       <c r="H10">
-        <v>12.39920668867454</v>
+        <v>16.73922678941241</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.526887970073194</v>
+        <v>10.92327269183548</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.11466236269802</v>
+        <v>18.58496569587197</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.03519345707217</v>
+        <v>17.23008731050037</v>
       </c>
       <c r="C11">
-        <v>18.44759802034106</v>
+        <v>10.2190052293421</v>
       </c>
       <c r="D11">
-        <v>6.314887534956444</v>
+        <v>9.368625129090569</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.04508373125767</v>
+        <v>36.6445799948486</v>
       </c>
       <c r="G11">
-        <v>45.43686036982956</v>
+        <v>41.16668570274945</v>
       </c>
       <c r="H11">
-        <v>12.58003548509145</v>
+        <v>16.72825139915164</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.538446423914518</v>
+        <v>10.90776043148518</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.81998045193919</v>
+        <v>18.71961312061453</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.39444102160653</v>
+        <v>17.36993584665775</v>
       </c>
       <c r="C12">
-        <v>18.68253983681246</v>
+        <v>10.334329036844</v>
       </c>
       <c r="D12">
-        <v>6.357670247648868</v>
+        <v>9.372726818170269</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.36699307587268</v>
+        <v>36.67563633806266</v>
       </c>
       <c r="G12">
-        <v>45.95414287215997</v>
+        <v>41.24769327909637</v>
       </c>
       <c r="H12">
-        <v>12.65093777790717</v>
+        <v>16.7247395481868</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.54361227676276</v>
+        <v>10.90211301401151</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.08240189736635</v>
+        <v>18.77084019366104</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.31735893103653</v>
+        <v>17.33989655981606</v>
       </c>
       <c r="C13">
-        <v>18.63212707923993</v>
+        <v>10.30959930039794</v>
       </c>
       <c r="D13">
-        <v>6.348461298560728</v>
+        <v>9.371837562834058</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.29751470353114</v>
+        <v>36.6688720158119</v>
       </c>
       <c r="G13">
-        <v>45.84259784514308</v>
+        <v>41.23014845500069</v>
       </c>
       <c r="H13">
-        <v>12.63555799776147</v>
+        <v>16.72546718828687</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.542463813505552</v>
+        <v>10.90331920009545</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.02608999102734</v>
+        <v>18.75979752265996</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.06487917195103</v>
+        <v>17.2416284367021</v>
       </c>
       <c r="C14">
-        <v>18.46701088780692</v>
+        <v>10.22854130405968</v>
       </c>
       <c r="D14">
-        <v>6.318409562330951</v>
+        <v>9.368959923670452</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.07150016899057</v>
+        <v>36.6471008521399</v>
       </c>
       <c r="G14">
-        <v>45.479355023021</v>
+        <v>41.17330582365808</v>
       </c>
       <c r="H14">
-        <v>12.58581938939285</v>
+        <v>16.72794954830107</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.538855317755238</v>
+        <v>10.90729127013101</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.84166272624552</v>
+        <v>18.72382303771801</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90938049089901</v>
+        <v>17.18120524399695</v>
       </c>
       <c r="C15">
-        <v>18.3653253212119</v>
+        <v>10.17857719718646</v>
       </c>
       <c r="D15">
-        <v>6.29998736768639</v>
+        <v>9.367214545602559</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.93349615048968</v>
+        <v>36.63398749037381</v>
       </c>
       <c r="G15">
-        <v>45.25726368256623</v>
+        <v>41.13877715014267</v>
       </c>
       <c r="H15">
-        <v>12.55567235817331</v>
+        <v>16.72955405563805</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.536749262820011</v>
+        <v>10.90975380962893</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.72809219520303</v>
+        <v>18.70181758696993</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.00514557081992</v>
+        <v>16.83148998138162</v>
       </c>
       <c r="C16">
-        <v>17.77413459453158</v>
+        <v>9.887466396847147</v>
       </c>
       <c r="D16">
-        <v>6.194203367508949</v>
+        <v>9.35747842531573</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.149299950776</v>
+        <v>36.56225272270022</v>
       </c>
       <c r="G16">
-        <v>43.99071284320434</v>
+        <v>40.94537975247282</v>
       </c>
       <c r="H16">
-        <v>12.38772258713807</v>
+        <v>16.74003405841492</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.526240250926486</v>
+        <v>10.92431817630234</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.06790727363277</v>
+        <v>18.57620175725233</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.43855388021318</v>
+        <v>16.61396873718504</v>
       </c>
       <c r="C17">
-        <v>17.40380919753791</v>
+        <v>9.704634372287362</v>
       </c>
       <c r="D17">
-        <v>6.129130291981428</v>
+        <v>9.351744433325143</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.67412592408749</v>
+        <v>36.52129917430553</v>
       </c>
       <c r="G17">
-        <v>43.21920403540155</v>
+        <v>40.83077124728808</v>
       </c>
       <c r="H17">
-        <v>12.28889428458484</v>
+        <v>16.74760762259869</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.521145021513668</v>
+        <v>10.93365665528284</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.65444100674828</v>
+        <v>18.49960826497063</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10824346158479</v>
+        <v>16.48780180972701</v>
       </c>
       <c r="C18">
-        <v>17.1879629121927</v>
+        <v>9.597925619276127</v>
       </c>
       <c r="D18">
-        <v>6.09164218861776</v>
+        <v>9.34853473877552</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.40298320861386</v>
+        <v>36.49886883943979</v>
       </c>
       <c r="G18">
-        <v>42.77746974872613</v>
+        <v>40.76635075130215</v>
       </c>
       <c r="H18">
-        <v>12.23356069011878</v>
+        <v>16.75238331485768</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.51869557850601</v>
+        <v>10.93917622174324</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.41347190708544</v>
+        <v>18.45573821627696</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.9956411668169</v>
+        <v>16.44490686119794</v>
       </c>
       <c r="C19">
-        <v>17.11438937536656</v>
+        <v>9.561531074022051</v>
       </c>
       <c r="D19">
-        <v>6.078939675836097</v>
+        <v>9.347463219663549</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.31155077085754</v>
+        <v>36.49146779172528</v>
       </c>
       <c r="G19">
-        <v>42.6282540081204</v>
+        <v>40.74479808892016</v>
       </c>
       <c r="H19">
-        <v>12.2150817190441</v>
+        <v>16.75407224726091</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.517947446661799</v>
+        <v>10.94107052217274</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.33133815167602</v>
+        <v>18.44091745296398</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4993248848867</v>
+        <v>16.6372343436313</v>
       </c>
       <c r="C20">
-        <v>17.44352466557414</v>
+        <v>9.724257702417685</v>
       </c>
       <c r="D20">
-        <v>6.136063755906727</v>
+        <v>9.352345696167909</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.72448493358974</v>
+        <v>36.5255423709082</v>
       </c>
       <c r="G20">
-        <v>43.30112397163599</v>
+        <v>40.84281671105479</v>
       </c>
       <c r="H20">
-        <v>12.29925768273953</v>
+        <v>16.74675795610472</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.521637270971972</v>
+        <v>10.9326472067273</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.69878068608942</v>
+        <v>18.5077429615516</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.13921487159044</v>
+        <v>17.27054053949351</v>
       </c>
       <c r="C21">
-        <v>18.51562332676299</v>
+        <v>10.25241543653944</v>
       </c>
       <c r="D21">
-        <v>6.327239559698931</v>
+        <v>9.36980156267056</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.13779505206245</v>
+        <v>36.65344930526621</v>
       </c>
       <c r="G21">
-        <v>45.58596360687509</v>
+        <v>41.18994174030879</v>
       </c>
       <c r="H21">
-        <v>12.60036208016544</v>
+        <v>16.72720291056403</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.539893401870844</v>
+        <v>10.90611842222576</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.89595899096587</v>
+        <v>18.7343834424996</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.17288379916264</v>
+        <v>17.6742064324606</v>
       </c>
       <c r="C22">
-        <v>19.19171993514256</v>
+        <v>10.58358346145337</v>
       </c>
       <c r="D22">
-        <v>6.45154311972558</v>
+        <v>9.381984047075177</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.08098559471795</v>
+        <v>36.7469932481436</v>
       </c>
       <c r="G22">
-        <v>47.09737365910441</v>
+        <v>41.42979246197584</v>
       </c>
       <c r="H22">
-        <v>12.81134835091725</v>
+        <v>16.71817915140824</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.556448545209692</v>
+        <v>10.89010199310284</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.65125323530182</v>
+        <v>18.88388102044535</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.62461562322529</v>
+        <v>17.45973709346439</v>
       </c>
       <c r="C23">
-        <v>18.83308466511706</v>
+        <v>10.40812442318347</v>
       </c>
       <c r="D23">
-        <v>6.385262924848266</v>
+        <v>9.375411825112003</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.57577999351238</v>
+        <v>36.6961606062849</v>
       </c>
       <c r="G23">
-        <v>46.28901686027714</v>
+        <v>41.30061038112275</v>
       </c>
       <c r="H23">
-        <v>12.69740453280696</v>
+        <v>16.72265065640076</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.547172576627393</v>
+        <v>10.89852928815895</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.25057212533576</v>
+        <v>18.8039785296229</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.47186455985308</v>
+        <v>16.62671941389398</v>
       </c>
       <c r="C24">
-        <v>17.4255784718952</v>
+        <v>9.71539096399491</v>
       </c>
       <c r="D24">
-        <v>6.13292937451808</v>
+        <v>9.352073594571065</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.70171126881672</v>
+        <v>36.52362054975008</v>
       </c>
       <c r="G24">
-        <v>43.26408230986838</v>
+        <v>40.83736637574676</v>
       </c>
       <c r="H24">
-        <v>12.29456777597304</v>
+        <v>16.74714077744992</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.521413233961276</v>
+        <v>10.93310310885929</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.67874488722922</v>
+        <v>18.50406474962931</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9800824767487</v>
+        <v>15.68851059221284</v>
       </c>
       <c r="C25">
-        <v>15.79825736284421</v>
+        <v>8.909176991014608</v>
       </c>
       <c r="D25">
-        <v>5.858566781952835</v>
+        <v>9.330283791587485</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.76326848799571</v>
+        <v>36.38053396384686</v>
       </c>
       <c r="G25">
-        <v>40.07913520826259</v>
+        <v>40.39515912781748</v>
       </c>
       <c r="H25">
-        <v>11.91734024439034</v>
+        <v>16.78958324534962</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.511853666721906</v>
+        <v>10.9760666128696</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.86221624838872</v>
+        <v>18.18776829137237</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.96897479739331</v>
+        <v>20.99295522542659</v>
       </c>
       <c r="C2">
-        <v>8.266510995309281</v>
+        <v>14.50267506144932</v>
       </c>
       <c r="D2">
-        <v>9.317208248789967</v>
+        <v>5.655471571948885</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.31233528709617</v>
+        <v>29.4081566253578</v>
       </c>
       <c r="G2">
-        <v>40.12048405863331</v>
+        <v>37.80500685622646</v>
       </c>
       <c r="H2">
-        <v>16.83448487634694</v>
+        <v>11.68478479746683</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.01257593831783</v>
+        <v>6.51882626785682</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.96244524207853</v>
+        <v>15.60774563159769</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.46667559738459</v>
+        <v>19.54819567766246</v>
       </c>
       <c r="C3">
-        <v>7.801617803030675</v>
+        <v>13.56244343862637</v>
       </c>
       <c r="D3">
-        <v>9.310225729630393</v>
+        <v>5.517674249074716</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.289288153946</v>
+        <v>28.53596975845149</v>
       </c>
       <c r="G3">
-        <v>39.96665136336791</v>
+        <v>36.3123202277762</v>
       </c>
       <c r="H3">
-        <v>16.87335582583014</v>
+        <v>11.55326053943352</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.04035937685379</v>
+        <v>6.53152498327113</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.81513519022682</v>
+        <v>14.77287847187498</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.15229384886916</v>
+        <v>18.6118187424212</v>
       </c>
       <c r="C4">
-        <v>7.502268120912341</v>
+        <v>12.9540808861383</v>
       </c>
       <c r="D4">
-        <v>9.306873983947732</v>
+        <v>5.433191778860432</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.28654198038769</v>
+        <v>28.02372259180841</v>
       </c>
       <c r="G4">
-        <v>39.88826225060501</v>
+        <v>35.42165237262675</v>
       </c>
       <c r="H4">
-        <v>16.90135899576612</v>
+        <v>11.48463147993319</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.05891815563326</v>
+        <v>6.543017268396044</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.72756565199284</v>
+        <v>14.2442528933149</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.02288991811257</v>
+        <v>18.21771496655432</v>
       </c>
       <c r="C5">
-        <v>7.376892821366991</v>
+        <v>12.69831717289831</v>
       </c>
       <c r="D5">
-        <v>9.305744719364993</v>
+        <v>5.398829745076774</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.28828528808188</v>
+        <v>27.82090877017693</v>
       </c>
       <c r="G5">
-        <v>39.86037077594217</v>
+        <v>35.06552420223281</v>
       </c>
       <c r="H5">
-        <v>16.91380642933412</v>
+        <v>11.45960049442082</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.06685806005899</v>
+        <v>6.548595988115971</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.69263686825482</v>
+        <v>14.0250162259105</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.00133100125933</v>
+        <v>18.15151433695108</v>
       </c>
       <c r="C6">
-        <v>7.355873335982237</v>
+        <v>12.65537265008946</v>
       </c>
       <c r="D6">
-        <v>9.305571533816375</v>
+        <v>5.393128919167373</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.28874743498869</v>
+        <v>27.78759195620811</v>
       </c>
       <c r="G6">
-        <v>39.85598443659587</v>
+        <v>35.0068114781304</v>
       </c>
       <c r="H6">
-        <v>16.91593575592283</v>
+        <v>11.4556180241053</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.06819924678885</v>
+        <v>6.549575459854359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.68688358416079</v>
+        <v>13.98838863715345</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.15055359874542</v>
+        <v>18.60655459128964</v>
       </c>
       <c r="C7">
-        <v>7.500590823693167</v>
+        <v>12.9506634018633</v>
       </c>
       <c r="D7">
-        <v>9.306857794574986</v>
+        <v>5.43272805027498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.28655391076212</v>
+        <v>28.02096326433537</v>
       </c>
       <c r="G7">
-        <v>39.88786967520075</v>
+        <v>35.4168214220932</v>
       </c>
       <c r="H7">
-        <v>16.90152267760562</v>
+        <v>11.48428216955658</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.0590237093625</v>
+        <v>6.543088922485289</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.72709148523725</v>
+        <v>14.2413113359859</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.79714127908995</v>
+        <v>20.50495296739487</v>
       </c>
       <c r="C8">
-        <v>8.109159801432089</v>
+        <v>14.18490004064696</v>
       </c>
       <c r="D8">
-        <v>9.31460732986625</v>
+        <v>5.607952494833281</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.30201904710981</v>
+        <v>29.10264344673502</v>
       </c>
       <c r="G8">
-        <v>40.06411830838726</v>
+        <v>37.28515308859961</v>
       </c>
       <c r="H8">
-        <v>16.84702665903577</v>
+        <v>11.63685132751833</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.02184439349466</v>
+        <v>6.522417127932576</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.91107497550103</v>
+        <v>15.32331814955389</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.00940457210513</v>
+        <v>23.84270895775188</v>
       </c>
       <c r="C9">
-        <v>9.188505318128692</v>
+        <v>16.36133491975103</v>
       </c>
       <c r="D9">
-        <v>9.33716641645737</v>
+        <v>5.951215408280764</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.42296654126203</v>
+        <v>31.40514035230265</v>
       </c>
       <c r="G9">
-        <v>40.53629601505434</v>
+        <v>41.14139109384462</v>
       </c>
       <c r="H9">
-        <v>16.77315647674327</v>
+        <v>12.037115141406</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.96083685303377</v>
+        <v>6.512790661096468</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.2932292654396</v>
+        <v>17.49073106033944</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.85616472220004</v>
+        <v>26.06920264187173</v>
       </c>
       <c r="C10">
-        <v>9.908118103799769</v>
+        <v>17.81600821436013</v>
       </c>
       <c r="D10">
-        <v>9.358144642629613</v>
+        <v>6.201620131501195</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.56707805424189</v>
+        <v>33.20381415407698</v>
       </c>
       <c r="G10">
-        <v>40.95865935748063</v>
+        <v>44.07902006204395</v>
       </c>
       <c r="H10">
-        <v>16.73922678941241</v>
+        <v>12.39920668867444</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.92327269183548</v>
+        <v>6.526887970073115</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.58496569587197</v>
+        <v>19.11466236269814</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.23008731050037</v>
+        <v>27.03519345707214</v>
       </c>
       <c r="C11">
-        <v>10.2190052293421</v>
+        <v>18.44759802034111</v>
       </c>
       <c r="D11">
-        <v>9.368625129090569</v>
+        <v>6.314887534956408</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.6445799948486</v>
+        <v>34.04508373125768</v>
       </c>
       <c r="G11">
-        <v>41.16668570274945</v>
+        <v>45.43686036982957</v>
       </c>
       <c r="H11">
-        <v>16.72825139915164</v>
+        <v>12.5800354850915</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.90776043148518</v>
+        <v>6.538446423914513</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.71961312061453</v>
+        <v>19.81998045193919</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.36993584665775</v>
+        <v>27.39444102160641</v>
       </c>
       <c r="C12">
-        <v>10.334329036844</v>
+        <v>18.68253983681246</v>
       </c>
       <c r="D12">
-        <v>9.372726818170269</v>
+        <v>6.357670247648675</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.67563633806266</v>
+        <v>34.36699307587268</v>
       </c>
       <c r="G12">
-        <v>41.24769327909637</v>
+        <v>45.95414287215998</v>
       </c>
       <c r="H12">
-        <v>16.7247395481868</v>
+        <v>12.65093777790723</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.90211301401151</v>
+        <v>6.543612276762834</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.77084019366104</v>
+        <v>20.08240189736634</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.33989655981606</v>
+        <v>27.31735893103646</v>
       </c>
       <c r="C13">
-        <v>10.30959930039794</v>
+        <v>18.63212707923993</v>
       </c>
       <c r="D13">
-        <v>9.371837562834058</v>
+        <v>6.348461298560691</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.6688720158119</v>
+        <v>34.29751470353117</v>
       </c>
       <c r="G13">
-        <v>41.23014845500069</v>
+        <v>45.84259784514311</v>
       </c>
       <c r="H13">
-        <v>16.72546718828687</v>
+        <v>12.63555799776151</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.90331920009545</v>
+        <v>6.542463813505544</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.75979752265996</v>
+        <v>20.02608999102729</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.2416284367021</v>
+        <v>27.064879171951</v>
       </c>
       <c r="C14">
-        <v>10.22854130405968</v>
+        <v>18.46701088780699</v>
       </c>
       <c r="D14">
-        <v>9.368959923670452</v>
+        <v>6.318409562330886</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.6471008521399</v>
+        <v>34.0715001689906</v>
       </c>
       <c r="G14">
-        <v>41.17330582365808</v>
+        <v>45.47935502302109</v>
       </c>
       <c r="H14">
-        <v>16.72794954830107</v>
+        <v>12.58581938939286</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.90729127013101</v>
+        <v>6.538855317755239</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.72382303771801</v>
+        <v>19.84166272624551</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.18120524399695</v>
+        <v>26.90938049089906</v>
       </c>
       <c r="C15">
-        <v>10.17857719718646</v>
+        <v>18.36532532121188</v>
       </c>
       <c r="D15">
-        <v>9.367214545602559</v>
+        <v>6.299987367686387</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.63398749037381</v>
+        <v>33.93349615048958</v>
       </c>
       <c r="G15">
-        <v>41.13877715014267</v>
+        <v>45.2572636825661</v>
       </c>
       <c r="H15">
-        <v>16.72955405563805</v>
+        <v>12.55567235817322</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.90975380962893</v>
+        <v>6.536749262819923</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.70181758696993</v>
+        <v>19.72809219520308</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.83148998138162</v>
+        <v>26.00514557081996</v>
       </c>
       <c r="C16">
-        <v>9.887466396847147</v>
+        <v>17.7741345945317</v>
       </c>
       <c r="D16">
-        <v>9.35747842531573</v>
+        <v>6.194203367508953</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.56225272270022</v>
+        <v>33.14929995077594</v>
       </c>
       <c r="G16">
-        <v>40.94537975247282</v>
+        <v>43.99071284320434</v>
       </c>
       <c r="H16">
-        <v>16.74003405841492</v>
+        <v>12.38772258713806</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.92431817630234</v>
+        <v>6.526240250926568</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.57620175725233</v>
+        <v>19.06790727363279</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.61396873718504</v>
+        <v>25.43855388021329</v>
       </c>
       <c r="C17">
-        <v>9.704634372287362</v>
+        <v>17.40380919753805</v>
       </c>
       <c r="D17">
-        <v>9.351744433325143</v>
+        <v>6.129130291981494</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.52129917430553</v>
+        <v>32.67412592408748</v>
       </c>
       <c r="G17">
-        <v>40.83077124728808</v>
+        <v>43.21920403540162</v>
       </c>
       <c r="H17">
-        <v>16.74760762259869</v>
+        <v>12.2888942845848</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.93365665528284</v>
+        <v>6.521145021513666</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.49960826497063</v>
+        <v>18.65444100674837</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.48780180972701</v>
+        <v>25.10824346158478</v>
       </c>
       <c r="C18">
-        <v>9.597925619276127</v>
+        <v>17.18796291219282</v>
       </c>
       <c r="D18">
-        <v>9.34853473877552</v>
+        <v>6.091642188617867</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.49886883943979</v>
+        <v>32.40298320861388</v>
       </c>
       <c r="G18">
-        <v>40.76635075130215</v>
+        <v>42.77746974872613</v>
       </c>
       <c r="H18">
-        <v>16.75238331485768</v>
+        <v>12.23356069011877</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.93917622174324</v>
+        <v>6.518695578505958</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.45573821627696</v>
+        <v>18.41347190708543</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.44490686119794</v>
+        <v>24.99564116681694</v>
       </c>
       <c r="C19">
-        <v>9.561531074022051</v>
+        <v>17.11438937536651</v>
       </c>
       <c r="D19">
-        <v>9.347463219663549</v>
+        <v>6.078939675836091</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.49146779172528</v>
+        <v>32.31155077085747</v>
       </c>
       <c r="G19">
-        <v>40.74479808892016</v>
+        <v>42.62825400812032</v>
       </c>
       <c r="H19">
-        <v>16.75407224726091</v>
+        <v>12.21508171904407</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.94107052217274</v>
+        <v>6.517947446661822</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.44091745296398</v>
+        <v>18.33133815167599</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.6372343436313</v>
+        <v>25.49932488488666</v>
       </c>
       <c r="C20">
-        <v>9.724257702417685</v>
+        <v>17.44352466557401</v>
       </c>
       <c r="D20">
-        <v>9.352345696167909</v>
+        <v>6.136063755906662</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.5255423709082</v>
+        <v>32.72448493358974</v>
       </c>
       <c r="G20">
-        <v>40.84281671105479</v>
+        <v>43.30112397163595</v>
       </c>
       <c r="H20">
-        <v>16.74675795610472</v>
+        <v>12.29925768273955</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.9326472067273</v>
+        <v>6.521637270971921</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.5077429615516</v>
+        <v>18.6987806860894</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.27054053949351</v>
+        <v>27.13921487159045</v>
       </c>
       <c r="C21">
-        <v>10.25241543653944</v>
+        <v>18.5156233267631</v>
       </c>
       <c r="D21">
-        <v>9.36980156267056</v>
+        <v>6.327239559698857</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.65344930526621</v>
+        <v>34.13779505206249</v>
       </c>
       <c r="G21">
-        <v>41.18994174030879</v>
+        <v>45.58596360687518</v>
       </c>
       <c r="H21">
-        <v>16.72720291056403</v>
+        <v>12.60036208016546</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.90611842222576</v>
+        <v>6.539893401870891</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.7343834424996</v>
+        <v>19.89595899096589</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.6742064324606</v>
+        <v>28.1728837991626</v>
       </c>
       <c r="C22">
-        <v>10.58358346145337</v>
+        <v>19.19171993514247</v>
       </c>
       <c r="D22">
-        <v>9.381984047075177</v>
+        <v>6.451543119725573</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.7469932481436</v>
+        <v>35.08098559471796</v>
       </c>
       <c r="G22">
-        <v>41.42979246197584</v>
+        <v>47.0973736591044</v>
       </c>
       <c r="H22">
-        <v>16.71817915140824</v>
+        <v>12.81134835091725</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.89010199310284</v>
+        <v>6.556448545209709</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.88388102044535</v>
+        <v>20.65125323530177</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.45973709346439</v>
+        <v>27.62461562322529</v>
       </c>
       <c r="C23">
-        <v>10.40812442318347</v>
+        <v>18.83308466511706</v>
       </c>
       <c r="D23">
-        <v>9.375411825112003</v>
+        <v>6.385262924848324</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.6961606062849</v>
+        <v>34.5757799935125</v>
       </c>
       <c r="G23">
-        <v>41.30061038112275</v>
+        <v>46.28901686027735</v>
       </c>
       <c r="H23">
-        <v>16.72265065640076</v>
+        <v>12.697404532807</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.89852928815895</v>
+        <v>6.547172576627343</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.8039785296229</v>
+        <v>20.25057212533574</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.62671941389398</v>
+        <v>25.4718645598531</v>
       </c>
       <c r="C24">
-        <v>9.71539096399491</v>
+        <v>17.42557847189536</v>
       </c>
       <c r="D24">
-        <v>9.352073594571065</v>
+        <v>6.132929374518192</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.52362054975008</v>
+        <v>32.70171126881669</v>
       </c>
       <c r="G24">
-        <v>40.83736637574676</v>
+        <v>43.26408230986826</v>
       </c>
       <c r="H24">
-        <v>16.74714077744992</v>
+        <v>12.294567775973</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.93310310885929</v>
+        <v>6.521413233961337</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.50406474962931</v>
+        <v>18.6787448872292</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.68851059221284</v>
+        <v>22.98008247674876</v>
       </c>
       <c r="C25">
-        <v>8.909176991014608</v>
+        <v>15.79825736284429</v>
       </c>
       <c r="D25">
-        <v>9.330283791587485</v>
+        <v>5.858566781952796</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.38053396384686</v>
+        <v>30.76326848799569</v>
       </c>
       <c r="G25">
-        <v>40.39515912781748</v>
+        <v>40.07913520826262</v>
       </c>
       <c r="H25">
-        <v>16.78958324534962</v>
+        <v>11.91734024439031</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.9760666128696</v>
+        <v>6.511853666721914</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.18776829137237</v>
+        <v>16.86221624838877</v>
       </c>
       <c r="N25">
         <v>0</v>
